--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832374.5621635201</v>
+        <v>-835183.3393618049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>62.21650971537273</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>272.9792411720902</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05161472953677</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.4204908877588</v>
+        <v>316.4204908877587</v>
       </c>
       <c r="I2" t="n">
-        <v>123.6894783786282</v>
+        <v>123.689478378628</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.462026260311319</v>
       </c>
       <c r="S2" t="n">
-        <v>157.7226091094245</v>
+        <v>157.7226091094244</v>
       </c>
       <c r="T2" t="n">
         <v>213.2415595701749</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1655630849886</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.8892062171636</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>100.6029265194729</v>
       </c>
       <c r="I3" t="n">
-        <v>47.92739394195336</v>
+        <v>47.92739394195325</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.37585377017942</v>
+        <v>25.37585377017921</v>
       </c>
       <c r="S3" t="n">
-        <v>149.3109129151028</v>
+        <v>149.3109129151027</v>
       </c>
       <c r="T3" t="n">
         <v>195.3099222543381</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.4189530857758</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2639506555482</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>34.31856561370174</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.7790065712296</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>98.47023815338717</v>
       </c>
       <c r="G5" t="n">
-        <v>13.05161472953677</v>
+        <v>413.0516147295368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>117.1259267395032</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.462026260311717</v>
+        <v>8.462026260311319</v>
       </c>
       <c r="S5" t="n">
-        <v>157.7226091094245</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.2415595701749</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1655630849886</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>100.6029265194729</v>
       </c>
       <c r="I6" t="n">
-        <v>47.92739394195336</v>
+        <v>47.92739394195325</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.37585377017942</v>
+        <v>25.37585377017921</v>
       </c>
       <c r="S6" t="n">
-        <v>149.3109129151028</v>
+        <v>149.3109129151027</v>
       </c>
       <c r="T6" t="n">
         <v>195.3099222543381</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>31.4052611761766</v>
       </c>
       <c r="G7" t="n">
-        <v>166.981203174509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.60705752114076</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8901822333939</v>
+        <v>131.8901822333938</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.4189530857757</v>
       </c>
       <c r="T7" t="n">
-        <v>223.631091187769</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>188.7727766644353</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>363.0866954124239</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>234.5727126419889</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.813828655165622</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>93.26608410631239</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>76.17049831699767</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>180.0572044082406</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>152.0854776630165</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>43.34824157860987</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>186.4479095884334</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>105.182073269868</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881296</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100.2041656279965</v>
+        <v>105.8965430419528</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652629</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.385895825502</v>
+        <v>497.449371213805</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.42337888509</v>
+        <v>497.449371213805</v>
       </c>
       <c r="D2" t="n">
-        <v>1172.15768027834</v>
+        <v>497.449371213805</v>
       </c>
       <c r="E2" t="n">
-        <v>786.3694276800952</v>
+        <v>497.449371213805</v>
       </c>
       <c r="F2" t="n">
-        <v>510.6328204355596</v>
+        <v>497.449371213805</v>
       </c>
       <c r="G2" t="n">
-        <v>497.4493712138053</v>
+        <v>497.449371213805</v>
       </c>
       <c r="H2" t="n">
-        <v>177.8327137514226</v>
+        <v>177.8327137514224</v>
       </c>
       <c r="I2" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J2" t="n">
-        <v>230.2146704401671</v>
+        <v>230.2146704401677</v>
       </c>
       <c r="K2" t="n">
-        <v>295.8134653437981</v>
+        <v>616.7174237892525</v>
       </c>
       <c r="L2" t="n">
-        <v>644.2706511940809</v>
+        <v>1148.48489377233</v>
       </c>
       <c r="M2" t="n">
-        <v>1252.570967645402</v>
+        <v>1311.766812065748</v>
       </c>
       <c r="N2" t="n">
-        <v>1856.082221629494</v>
+        <v>1482.304610881976</v>
       </c>
       <c r="O2" t="n">
-        <v>2003.780967921577</v>
+        <v>2003.780967921575</v>
       </c>
       <c r="P2" t="n">
-        <v>2413.918150981417</v>
+        <v>2413.918150981416</v>
       </c>
       <c r="Q2" t="n">
         <v>2644.692335115161</v>
       </c>
       <c r="R2" t="n">
-        <v>2644.692335115161</v>
+        <v>2636.144833842119</v>
       </c>
       <c r="S2" t="n">
-        <v>2485.376568337965</v>
+        <v>2476.829067064923</v>
       </c>
       <c r="T2" t="n">
-        <v>2269.981053620616</v>
+        <v>2261.433552347575</v>
       </c>
       <c r="U2" t="n">
-        <v>2269.981053620616</v>
+        <v>2007.730963372839</v>
       </c>
       <c r="V2" t="n">
-        <v>2269.981053620616</v>
+        <v>1676.668076029268</v>
       </c>
       <c r="W2" t="n">
-        <v>2269.981053620616</v>
+        <v>1323.899420759154</v>
       </c>
       <c r="X2" t="n">
-        <v>2269.981053620616</v>
+        <v>950.433662498074</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.385895825502</v>
+        <v>560.2943305222623</v>
       </c>
     </row>
     <row r="3">
@@ -4401,37 +4401,37 @@
         <v>202.9244734310164</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3053557345794</v>
+        <v>101.3053557345793</v>
       </c>
       <c r="I3" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J3" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="K3" t="n">
-        <v>370.7998448799311</v>
+        <v>108.9792602374788</v>
       </c>
       <c r="L3" t="n">
-        <v>859.6680877534743</v>
+        <v>597.8475031110228</v>
       </c>
       <c r="M3" t="n">
-        <v>1021.085477289352</v>
+        <v>1033.701989061131</v>
       </c>
       <c r="N3" t="n">
-        <v>1480.286827143645</v>
+        <v>1688.263342002133</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.745462258225</v>
+        <v>2220.721977116714</v>
       </c>
       <c r="P3" t="n">
-        <v>2423.087391642754</v>
+        <v>2631.063906501243</v>
       </c>
       <c r="Q3" t="n">
         <v>2644.692335115161</v>
       </c>
       <c r="R3" t="n">
-        <v>2619.060159589728</v>
+        <v>2619.060159589727</v>
       </c>
       <c r="S3" t="n">
         <v>2468.241055635078</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.89384670230323</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="C4" t="n">
-        <v>52.89384670230323</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="D4" t="n">
-        <v>52.89384670230323</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="E4" t="n">
-        <v>52.89384670230323</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="F4" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="G4" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="H4" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="I4" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J4" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="K4" t="n">
-        <v>146.991506472576</v>
+        <v>146.9915064725763</v>
       </c>
       <c r="L4" t="n">
-        <v>322.9305488911125</v>
+        <v>322.9305488911132</v>
       </c>
       <c r="M4" t="n">
-        <v>518.8227237419399</v>
+        <v>518.822723741941</v>
       </c>
       <c r="N4" t="n">
-        <v>715.491636937207</v>
+        <v>715.4916369372086</v>
       </c>
       <c r="O4" t="n">
-        <v>881.1309145445586</v>
+        <v>881.1309145445605</v>
       </c>
       <c r="P4" t="n">
-        <v>999.3432493782068</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="Q4" t="n">
-        <v>999.3432493782068</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="R4" t="n">
-        <v>999.3432493782068</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="S4" t="n">
-        <v>790.8392563622717</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="T4" t="n">
-        <v>790.8392563622717</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="U4" t="n">
-        <v>501.6837506495968</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="V4" t="n">
-        <v>501.6837506495968</v>
+        <v>744.6587611723222</v>
       </c>
       <c r="W4" t="n">
-        <v>212.2665806126362</v>
+        <v>455.2415911353616</v>
       </c>
       <c r="X4" t="n">
-        <v>212.2665806126362</v>
+        <v>420.5763733437437</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.89384670230323</v>
+        <v>199.7837942002136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.2943305222618</v>
+        <v>938.5451039284967</v>
       </c>
       <c r="C5" t="n">
-        <v>191.3318135818501</v>
+        <v>569.582586988085</v>
       </c>
       <c r="D5" t="n">
-        <v>191.3318135818501</v>
+        <v>569.582586988085</v>
       </c>
       <c r="E5" t="n">
-        <v>191.3318135818501</v>
+        <v>569.582586988085</v>
       </c>
       <c r="F5" t="n">
-        <v>184.3863128326466</v>
+        <v>470.1176999644616</v>
       </c>
       <c r="G5" t="n">
-        <v>171.2028636108923</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="H5" t="n">
-        <v>171.2028636108923</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="I5" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J5" t="n">
-        <v>230.2146704401671</v>
+        <v>62.80902141981464</v>
       </c>
       <c r="K5" t="n">
-        <v>295.8134653437981</v>
+        <v>449.3117747688995</v>
       </c>
       <c r="L5" t="n">
-        <v>414.0963329219283</v>
+        <v>981.0792447519766</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.39664937325</v>
+        <v>1589.379561203299</v>
       </c>
       <c r="N5" t="n">
-        <v>1479.090042179376</v>
+        <v>2192.890815187392</v>
       </c>
       <c r="O5" t="n">
-        <v>2003.780967921577</v>
+        <v>2532.553529764648</v>
       </c>
       <c r="P5" t="n">
-        <v>2413.918150981417</v>
+        <v>2624.109991734722</v>
       </c>
       <c r="Q5" t="n">
         <v>2644.692335115161</v>
@@ -4592,25 +4592,25 @@
         <v>2636.144833842119</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.829067064923</v>
+        <v>2636.144833842119</v>
       </c>
       <c r="T5" t="n">
-        <v>2261.433552347574</v>
+        <v>2636.144833842119</v>
       </c>
       <c r="U5" t="n">
-        <v>2007.730963372838</v>
+        <v>2382.442244867383</v>
       </c>
       <c r="V5" t="n">
-        <v>1676.668076029267</v>
+        <v>2051.379357523812</v>
       </c>
       <c r="W5" t="n">
-        <v>1323.899420759153</v>
+        <v>1698.610702253698</v>
       </c>
       <c r="X5" t="n">
-        <v>950.4336624980735</v>
+        <v>1325.144943992618</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.2943305222618</v>
+        <v>1325.144943992618</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.5981276629536</v>
+        <v>969.5981276629537</v>
       </c>
       <c r="C6" t="n">
-        <v>795.1450983818266</v>
+        <v>795.1450983818268</v>
       </c>
       <c r="D6" t="n">
-        <v>646.2106887205754</v>
+        <v>646.2106887205755</v>
       </c>
       <c r="E6" t="n">
         <v>486.9732337151199</v>
@@ -4641,28 +4641,28 @@
         <v>101.3053557345792</v>
       </c>
       <c r="I6" t="n">
-        <v>52.89384670230304</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J6" t="n">
-        <v>52.89384670230323</v>
+        <v>164.8115348683181</v>
       </c>
       <c r="K6" t="n">
-        <v>370.7998448799311</v>
+        <v>220.8969484034938</v>
       </c>
       <c r="L6" t="n">
-        <v>492.5361459030497</v>
+        <v>342.6332494266131</v>
       </c>
       <c r="M6" t="n">
-        <v>1115.001548551428</v>
+        <v>965.0986520749916</v>
       </c>
       <c r="N6" t="n">
-        <v>1769.56290149243</v>
+        <v>1480.286827143643</v>
       </c>
       <c r="O6" t="n">
-        <v>2220.721977116716</v>
+        <v>2012.745462258224</v>
       </c>
       <c r="P6" t="n">
-        <v>2631.063906501244</v>
+        <v>2423.087391642753</v>
       </c>
       <c r="Q6" t="n">
         <v>2644.692335115161</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.5617286967568</v>
+        <v>253.5525156667522</v>
       </c>
       <c r="C7" t="n">
-        <v>221.5617286967568</v>
+        <v>84.61633273884524</v>
       </c>
       <c r="D7" t="n">
-        <v>221.5617286967568</v>
+        <v>84.61633273884524</v>
       </c>
       <c r="E7" t="n">
-        <v>221.5617286967568</v>
+        <v>84.61633273884524</v>
       </c>
       <c r="F7" t="n">
-        <v>221.5617286967568</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="G7" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="H7" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="I7" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J7" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="K7" t="n">
-        <v>146.991506472576</v>
+        <v>146.9915064725763</v>
       </c>
       <c r="L7" t="n">
-        <v>322.9305488911125</v>
+        <v>322.9305488911132</v>
       </c>
       <c r="M7" t="n">
-        <v>518.8227237419399</v>
+        <v>518.822723741941</v>
       </c>
       <c r="N7" t="n">
-        <v>715.491636937207</v>
+        <v>715.4916369372086</v>
       </c>
       <c r="O7" t="n">
-        <v>881.1309145445586</v>
+        <v>881.1309145445605</v>
       </c>
       <c r="P7" t="n">
-        <v>999.3432493782068</v>
+        <v>999.3432493782091</v>
       </c>
       <c r="Q7" t="n">
-        <v>999.3432493782068</v>
+        <v>997.7199589528144</v>
       </c>
       <c r="R7" t="n">
-        <v>866.1208430818493</v>
+        <v>864.4975526564571</v>
       </c>
       <c r="S7" t="n">
-        <v>866.1208430818493</v>
+        <v>655.993559640522</v>
       </c>
       <c r="T7" t="n">
-        <v>640.2308519830926</v>
+        <v>655.993559640522</v>
       </c>
       <c r="U7" t="n">
-        <v>640.2308519830926</v>
+        <v>655.993559640522</v>
       </c>
       <c r="V7" t="n">
-        <v>449.5512795947741</v>
+        <v>655.993559640522</v>
       </c>
       <c r="W7" t="n">
-        <v>449.5512795947741</v>
+        <v>655.993559640522</v>
       </c>
       <c r="X7" t="n">
-        <v>221.5617286967568</v>
+        <v>655.993559640522</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.5617286967568</v>
+        <v>435.2009804969919</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>439.6409629650024</v>
+        <v>1845.137882784452</v>
       </c>
       <c r="C8" t="n">
-        <v>72.88672517467519</v>
+        <v>1476.175365844041</v>
       </c>
       <c r="D8" t="n">
-        <v>72.88672517467519</v>
+        <v>1117.90966723729</v>
       </c>
       <c r="E8" t="n">
-        <v>72.88672517467519</v>
+        <v>1117.90966723729</v>
       </c>
       <c r="F8" t="n">
-        <v>65.94122442547172</v>
+        <v>706.9237624476827</v>
       </c>
       <c r="G8" t="n">
-        <v>52.89384670230323</v>
+        <v>289.8359806841102</v>
       </c>
       <c r="H8" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="I8" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J8" t="n">
-        <v>241.5337457160396</v>
+        <v>74.12809669568652</v>
       </c>
       <c r="K8" t="n">
-        <v>324.0969002906319</v>
+        <v>156.6912512702789</v>
       </c>
       <c r="L8" t="n">
-        <v>751.198664394154</v>
+        <v>709.504509516478</v>
       </c>
       <c r="M8" t="n">
-        <v>1382.916475377466</v>
+        <v>1341.22232049979</v>
       </c>
       <c r="N8" t="n">
-        <v>2010.224143437312</v>
+        <v>1968.529988559636</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.393168754272</v>
+        <v>2498.973889844039</v>
       </c>
       <c r="P8" t="n">
         <v>2609.708215093566</v>
@@ -4829,25 +4829,25 @@
         <v>2644.692335115161</v>
       </c>
       <c r="S8" t="n">
-        <v>2488.477297611989</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="T8" t="n">
-        <v>2273.677435879701</v>
+        <v>2429.892473382872</v>
       </c>
       <c r="U8" t="n">
-        <v>2273.677435879701</v>
+        <v>2176.200770128023</v>
       </c>
       <c r="V8" t="n">
-        <v>1942.61454853613</v>
+        <v>1845.137882784452</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.845893266016</v>
+        <v>1845.137882784452</v>
       </c>
       <c r="X8" t="n">
-        <v>1216.380135004936</v>
+        <v>1845.137882784452</v>
       </c>
       <c r="Y8" t="n">
-        <v>826.2408030291242</v>
+        <v>1845.137882784452</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>199.7146815671821</v>
       </c>
       <c r="H9" t="n">
-        <v>98.79870371198675</v>
+        <v>98.79870371198673</v>
       </c>
       <c r="I9" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="J9" t="n">
         <v>171.5530985591989</v>
       </c>
       <c r="K9" t="n">
-        <v>314.0635113790419</v>
+        <v>239.1609182225559</v>
       </c>
       <c r="L9" t="n">
-        <v>451.2931093947359</v>
+        <v>743.5224580886745</v>
       </c>
       <c r="M9" t="n">
-        <v>1091.838458861841</v>
+        <v>1384.067807555779</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.399811802843</v>
+        <v>1582.724549208444</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.835820555566</v>
+        <v>2132.160557961167</v>
       </c>
       <c r="P9" t="n">
         <v>2404.525448082865</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>669.2031923607353</v>
+        <v>798.1440399557611</v>
       </c>
       <c r="C10" t="n">
-        <v>500.2670094328284</v>
+        <v>629.2078570278542</v>
       </c>
       <c r="D10" t="n">
-        <v>500.2670094328284</v>
+        <v>479.0912176155184</v>
       </c>
       <c r="E10" t="n">
-        <v>500.2670094328284</v>
+        <v>331.1781240331253</v>
       </c>
       <c r="F10" t="n">
-        <v>500.2670094328284</v>
+        <v>184.2881765352149</v>
       </c>
       <c r="G10" t="n">
-        <v>331.6601644282118</v>
+        <v>184.2881765352149</v>
       </c>
       <c r="H10" t="n">
-        <v>177.4055213279769</v>
+        <v>184.2881765352149</v>
       </c>
       <c r="I10" t="n">
-        <v>52.89384670230323</v>
+        <v>59.77650190954122</v>
       </c>
       <c r="J10" t="n">
-        <v>52.89384670230323</v>
+        <v>52.89384670230322</v>
       </c>
       <c r="K10" t="n">
         <v>153.941776297913</v>
@@ -4987,25 +4987,25 @@
         <v>1052.828528161648</v>
       </c>
       <c r="S10" t="n">
-        <v>958.620362397696</v>
+        <v>1052.828528161648</v>
       </c>
       <c r="T10" t="n">
-        <v>958.620362397696</v>
+        <v>1052.828528161648</v>
       </c>
       <c r="U10" t="n">
-        <v>958.620362397696</v>
+        <v>1052.828528161648</v>
       </c>
       <c r="V10" t="n">
-        <v>958.620362397696</v>
+        <v>798.1440399557611</v>
       </c>
       <c r="W10" t="n">
-        <v>669.2031923607353</v>
+        <v>798.1440399557611</v>
       </c>
       <c r="X10" t="n">
-        <v>669.2031923607353</v>
+        <v>798.1440399557611</v>
       </c>
       <c r="Y10" t="n">
-        <v>669.2031923607353</v>
+        <v>798.1440399557611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263215</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.825401600091</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.825401600091</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.032822456561</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5306,7 +5306,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2497.745796000626</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773693</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.672861378251</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.672861378251</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1984.597634722449</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856862</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577793</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>489.8360330454435</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>341.9229394630504</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F31" t="n">
-        <v>195.03299196514</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159259</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.154262550759</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,22 +7436,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>232.4993113860127</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>377.5531421692068</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>13.04286547574762</v>
+        <v>13.04286547574729</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>277.2091882972012</v>
       </c>
       <c r="N3" t="n">
-        <v>281.9223004182685</v>
+        <v>479.2556368694895</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>289.0460545352515</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>193.9029982678512</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>13.04286547574762</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.2556368694906</v>
+        <v>338.4746491196399</v>
       </c>
       <c r="O6" t="n">
-        <v>311.7415521148162</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>290.6799073356251</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,10 +8465,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>363.9140161287305</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>75.65918500655152</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>460.5097083720583</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>165.3285480751506</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>320.5173319481078</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>380.1827093863831</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.34873243888993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.2493442537775</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.083751140843</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.96800391142757</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.607057521141002</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>72.44497470121469</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>106.4657939283505</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>65.31997266427172</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>208.7894017452181</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>75.84421273177655</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.31997266427236</v>
+        <v>59.62759525031601</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-4.902744876744691e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1268550.695466102</v>
+        <v>1268550.695466101</v>
       </c>
     </row>
     <row r="4">
@@ -26317,7 +26317,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26332,28 +26332,28 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="M2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.486712678</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>225786.486712678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.486712678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761165.5885788801</v>
+        <v>761165.5885788815</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28697.84000521407</v>
+        <v>28697.84000521271</v>
       </c>
       <c r="E3" t="n">
         <v>774968.2996968124</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172991.9703322176</v>
+        <v>172991.9703322178</v>
       </c>
       <c r="K3" t="n">
-        <v>2.927109385016321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>127476.6190575751</v>
+        <v>127476.6190575752</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107154.1262506734</v>
+        <v>107154.1262506732</v>
       </c>
       <c r="C4" t="n">
-        <v>189363.5381878111</v>
+        <v>189363.5381878108</v>
       </c>
       <c r="D4" t="n">
         <v>183702.0609696329</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695023</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695024</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695065</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695006</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478859</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478859</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86034.19957935353</v>
+        <v>86034.19957935356</v>
       </c>
       <c r="C5" t="n">
-        <v>86034.19957935353</v>
+        <v>86034.19957935356</v>
       </c>
       <c r="D5" t="n">
         <v>86764.70248112027</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768176.5594251531</v>
+        <v>-768536.6424408717</v>
       </c>
       <c r="C6" t="n">
-        <v>-49611.25105448661</v>
+        <v>-49611.25105448638</v>
       </c>
       <c r="D6" t="n">
-        <v>-73378.1167432892</v>
+        <v>-73378.11674328786</v>
       </c>
       <c r="E6" t="n">
-        <v>-660412.9951376629</v>
+        <v>-660447.7330630984</v>
       </c>
       <c r="F6" t="n">
-        <v>114555.3045591492</v>
+        <v>114520.5666337137</v>
       </c>
       <c r="G6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="H6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="I6" t="n">
-        <v>114555.3045591494</v>
+        <v>114520.5666337139</v>
       </c>
       <c r="J6" t="n">
-        <v>-58436.66577306807</v>
+        <v>-58471.40369850393</v>
       </c>
       <c r="K6" t="n">
-        <v>114555.3045591494</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="L6" t="n">
-        <v>88916.31307034232</v>
+        <v>88916.31307034238</v>
       </c>
       <c r="M6" t="n">
-        <v>-19132.58799360102</v>
+        <v>-19132.587993601</v>
       </c>
       <c r="N6" t="n">
-        <v>108344.031063974</v>
+        <v>108344.0310639742</v>
       </c>
       <c r="O6" t="n">
-        <v>108344.0310639742</v>
+        <v>108344.0310639741</v>
       </c>
       <c r="P6" t="n">
         <v>108344.0310639741</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175721</v>
+        <v>559.9667929175737</v>
       </c>
       <c r="C3" t="n">
-        <v>559.9667929175721</v>
+        <v>559.9667929175737</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="C4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="D4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.658886731270401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175721</v>
+        <v>559.9667929175737</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.50930742049297</v>
+        <v>33.50930742049138</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.535204320858</v>
+        <v>511.5352043208581</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.535204320858</v>
+        <v>511.5352043208584</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.658886731270401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.535204320858</v>
+        <v>511.5352043208581</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>133.8968045696212</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>32.86890534315364</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.462026260311717</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1655630849886</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.981203174509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.2493442537775</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.083751140843</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.96800391142737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.60705752114076</v>
       </c>
       <c r="R4" t="n">
-        <v>131.8901822333939</v>
+        <v>131.8901822333938</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.4189530857757</v>
       </c>
       <c r="T4" t="n">
         <v>223.631091187769</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2639506555482</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>191.3910897753354</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.80564678086517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>308.4058075883243</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.4204908877588</v>
+        <v>316.4204908877587</v>
       </c>
       <c r="I5" t="n">
-        <v>6.563551639124995</v>
+        <v>123.689478378628</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.7226091094244</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>114.0157868467547</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.981203174509</v>
       </c>
       <c r="H7" t="n">
         <v>153.2493442537775</v>
@@ -27795,7 +27795,7 @@
         <v>125.083751140843</v>
       </c>
       <c r="J7" t="n">
-        <v>21.96800391142757</v>
+        <v>21.96800391142737</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.607057521141002</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>206.4189530857758</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.631091187769</v>
       </c>
       <c r="U7" t="n">
         <v>286.2639506555482</v>
       </c>
       <c r="V7" t="n">
-        <v>63.3648666593927</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>2.186196358583629</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>80.46817143322664</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>10.88201322660336</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>112.0997977938062</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,10 +28068,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.251122785598278</v>
+        <v>2.251122785598284</v>
       </c>
       <c r="H2" t="n">
-        <v>23.05431122800837</v>
+        <v>23.05431122800844</v>
       </c>
       <c r="I2" t="n">
-        <v>86.7864111917777</v>
+        <v>86.78641119177794</v>
       </c>
       <c r="J2" t="n">
-        <v>191.061232524172</v>
+        <v>191.0612325241726</v>
       </c>
       <c r="K2" t="n">
-        <v>286.3512600385472</v>
+        <v>286.351260038548</v>
       </c>
       <c r="L2" t="n">
-        <v>355.2440589883006</v>
+        <v>355.2440589883016</v>
       </c>
       <c r="M2" t="n">
-        <v>395.2774638266839</v>
+        <v>395.2774638266851</v>
       </c>
       <c r="N2" t="n">
-        <v>401.6734664412651</v>
+        <v>401.6734664412662</v>
       </c>
       <c r="O2" t="n">
-        <v>379.2888642419722</v>
+        <v>379.2888642419733</v>
       </c>
       <c r="P2" t="n">
-        <v>323.7142704725146</v>
+        <v>323.7142704725155</v>
       </c>
       <c r="Q2" t="n">
-        <v>243.0959357132762</v>
+        <v>243.0959357132769</v>
       </c>
       <c r="R2" t="n">
-        <v>141.407091680838</v>
+        <v>141.4070916808384</v>
       </c>
       <c r="S2" t="n">
-        <v>51.29746047682081</v>
+        <v>51.29746047682096</v>
       </c>
       <c r="T2" t="n">
-        <v>9.854289993956467</v>
+        <v>9.854289993956495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1800898228478622</v>
+        <v>0.1800898228478627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.204456875332136</v>
+        <v>1.20445687533214</v>
       </c>
       <c r="H3" t="n">
-        <v>11.63251771702353</v>
+        <v>11.63251771702356</v>
       </c>
       <c r="I3" t="n">
-        <v>41.46923890946172</v>
+        <v>41.46923890946183</v>
       </c>
       <c r="J3" t="n">
-        <v>113.7947611909191</v>
+        <v>113.7947611909194</v>
       </c>
       <c r="K3" t="n">
-        <v>194.4933718381722</v>
+        <v>194.4933718381727</v>
       </c>
       <c r="L3" t="n">
-        <v>261.5203404092869</v>
+        <v>261.5203404092877</v>
       </c>
       <c r="M3" t="n">
-        <v>305.1819021400768</v>
+        <v>305.1819021400776</v>
       </c>
       <c r="N3" t="n">
-        <v>313.2591589926331</v>
+        <v>313.259158992634</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5709303339578</v>
+        <v>286.5709303339587</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9984361325024</v>
+        <v>229.9984361325031</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.7478635950285</v>
+        <v>153.7478635950289</v>
       </c>
       <c r="R3" t="n">
-        <v>74.78198038246371</v>
+        <v>74.78198038246393</v>
       </c>
       <c r="S3" t="n">
-        <v>22.37225818873506</v>
+        <v>22.37225818873512</v>
       </c>
       <c r="T3" t="n">
-        <v>4.854806440483477</v>
+        <v>4.854806440483491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07924058390343004</v>
+        <v>0.07924058390343028</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.00977618394972</v>
+        <v>1.009776183949723</v>
       </c>
       <c r="H4" t="n">
-        <v>8.977828253662063</v>
+        <v>8.977828253662089</v>
       </c>
       <c r="I4" t="n">
-        <v>30.36672378641523</v>
+        <v>30.36672378641531</v>
       </c>
       <c r="J4" t="n">
-        <v>71.3911762052452</v>
+        <v>71.3911762052454</v>
       </c>
       <c r="K4" t="n">
-        <v>117.3176330079765</v>
+        <v>117.3176330079769</v>
       </c>
       <c r="L4" t="n">
-        <v>150.126179202852</v>
+        <v>150.1261792028525</v>
       </c>
       <c r="M4" t="n">
-        <v>158.2870067258638</v>
+        <v>158.2870067258643</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5232954947786</v>
+        <v>154.5232954947791</v>
       </c>
       <c r="O4" t="n">
-        <v>142.7272737095477</v>
+        <v>142.7272737095482</v>
       </c>
       <c r="P4" t="n">
-        <v>122.1278395569734</v>
+        <v>122.1278395569737</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.55498573055338</v>
+        <v>84.55498573055362</v>
       </c>
       <c r="R4" t="n">
-        <v>45.40320914377558</v>
+        <v>45.40320914377571</v>
       </c>
       <c r="S4" t="n">
-        <v>17.59764495119648</v>
+        <v>17.59764495119653</v>
       </c>
       <c r="T4" t="n">
-        <v>4.314498240512439</v>
+        <v>4.314498240512451</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05507870094271207</v>
+        <v>0.05507870094271222</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.251122785598278</v>
+        <v>2.251122785598284</v>
       </c>
       <c r="H5" t="n">
-        <v>23.05431122800837</v>
+        <v>23.05431122800844</v>
       </c>
       <c r="I5" t="n">
-        <v>86.7864111917777</v>
+        <v>86.78641119177794</v>
       </c>
       <c r="J5" t="n">
-        <v>191.061232524172</v>
+        <v>191.0612325241726</v>
       </c>
       <c r="K5" t="n">
-        <v>286.3512600385472</v>
+        <v>286.351260038548</v>
       </c>
       <c r="L5" t="n">
-        <v>355.2440589883006</v>
+        <v>355.2440589883016</v>
       </c>
       <c r="M5" t="n">
-        <v>395.2774638266839</v>
+        <v>395.2774638266851</v>
       </c>
       <c r="N5" t="n">
-        <v>401.6734664412651</v>
+        <v>401.6734664412662</v>
       </c>
       <c r="O5" t="n">
-        <v>379.2888642419722</v>
+        <v>379.2888642419733</v>
       </c>
       <c r="P5" t="n">
-        <v>323.7142704725146</v>
+        <v>323.7142704725155</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.0959357132762</v>
+        <v>243.0959357132769</v>
       </c>
       <c r="R5" t="n">
-        <v>141.407091680838</v>
+        <v>141.4070916808384</v>
       </c>
       <c r="S5" t="n">
-        <v>51.29746047682081</v>
+        <v>51.29746047682096</v>
       </c>
       <c r="T5" t="n">
-        <v>9.854289993956467</v>
+        <v>9.854289993956495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1800898228478622</v>
+        <v>0.1800898228478627</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.204456875332136</v>
+        <v>1.20445687533214</v>
       </c>
       <c r="H6" t="n">
-        <v>11.63251771702353</v>
+        <v>11.63251771702356</v>
       </c>
       <c r="I6" t="n">
-        <v>41.46923890946172</v>
+        <v>41.46923890946183</v>
       </c>
       <c r="J6" t="n">
-        <v>113.7947611909191</v>
+        <v>113.7947611909194</v>
       </c>
       <c r="K6" t="n">
-        <v>194.4933718381722</v>
+        <v>194.4933718381727</v>
       </c>
       <c r="L6" t="n">
-        <v>261.5203404092869</v>
+        <v>261.5203404092877</v>
       </c>
       <c r="M6" t="n">
-        <v>305.1819021400768</v>
+        <v>305.1819021400776</v>
       </c>
       <c r="N6" t="n">
-        <v>313.2591589926331</v>
+        <v>313.259158992634</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5709303339578</v>
+        <v>286.5709303339587</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9984361325024</v>
+        <v>229.9984361325031</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.7478635950285</v>
+        <v>153.7478635950289</v>
       </c>
       <c r="R6" t="n">
-        <v>74.78198038246371</v>
+        <v>74.78198038246393</v>
       </c>
       <c r="S6" t="n">
-        <v>22.37225818873506</v>
+        <v>22.37225818873512</v>
       </c>
       <c r="T6" t="n">
-        <v>4.854806440483477</v>
+        <v>4.854806440483491</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07924058390343004</v>
+        <v>0.07924058390343028</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00977618394972</v>
+        <v>1.009776183949723</v>
       </c>
       <c r="H7" t="n">
-        <v>8.977828253662063</v>
+        <v>8.977828253662089</v>
       </c>
       <c r="I7" t="n">
-        <v>30.36672378641523</v>
+        <v>30.36672378641531</v>
       </c>
       <c r="J7" t="n">
-        <v>71.3911762052452</v>
+        <v>71.3911762052454</v>
       </c>
       <c r="K7" t="n">
-        <v>117.3176330079765</v>
+        <v>117.3176330079769</v>
       </c>
       <c r="L7" t="n">
-        <v>150.126179202852</v>
+        <v>150.1261792028525</v>
       </c>
       <c r="M7" t="n">
-        <v>158.2870067258638</v>
+        <v>158.2870067258643</v>
       </c>
       <c r="N7" t="n">
-        <v>154.5232954947786</v>
+        <v>154.5232954947791</v>
       </c>
       <c r="O7" t="n">
-        <v>142.7272737095477</v>
+        <v>142.7272737095482</v>
       </c>
       <c r="P7" t="n">
-        <v>122.1278395569734</v>
+        <v>122.1278395569737</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.55498573055338</v>
+        <v>84.55498573055362</v>
       </c>
       <c r="R7" t="n">
-        <v>45.40320914377558</v>
+        <v>45.40320914377571</v>
       </c>
       <c r="S7" t="n">
-        <v>17.59764495119648</v>
+        <v>17.59764495119653</v>
       </c>
       <c r="T7" t="n">
-        <v>4.314498240512439</v>
+        <v>4.314498240512451</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05507870094271207</v>
+        <v>0.05507870094271222</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>281.0363767960748</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.8462560123205</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>638.9422653403558</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>179.1119431695595</v>
+        <v>179.11194316956</v>
       </c>
       <c r="K2" t="n">
-        <v>66.26140899356665</v>
+        <v>390.4068215647322</v>
       </c>
       <c r="L2" t="n">
-        <v>351.976955404326</v>
+        <v>537.1388585687648</v>
       </c>
       <c r="M2" t="n">
-        <v>614.4447640922436</v>
+        <v>164.9312305994123</v>
       </c>
       <c r="N2" t="n">
-        <v>609.6073272566583</v>
+        <v>172.2604028446753</v>
       </c>
       <c r="O2" t="n">
-        <v>149.1906528202855</v>
+        <v>526.7437949894934</v>
       </c>
       <c r="P2" t="n">
-        <v>414.2799828887277</v>
+        <v>414.2799828887286</v>
       </c>
       <c r="Q2" t="n">
-        <v>233.1052364987314</v>
+        <v>233.1052364987321</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>321.1171698763918</v>
+        <v>56.65193286381376</v>
       </c>
       <c r="L3" t="n">
-        <v>493.8063059328719</v>
+        <v>493.8063059328726</v>
       </c>
       <c r="M3" t="n">
-        <v>163.0478682180585</v>
+        <v>440.2570565152605</v>
       </c>
       <c r="N3" t="n">
-        <v>463.8397473275683</v>
+        <v>661.1730837787902</v>
       </c>
       <c r="O3" t="n">
-        <v>537.837005166243</v>
+        <v>537.8370051662438</v>
       </c>
       <c r="P3" t="n">
-        <v>414.4867973581094</v>
+        <v>414.48679735811</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.8433772448561</v>
+        <v>13.7660895090074</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.04814118209369</v>
+        <v>95.04814118209403</v>
       </c>
       <c r="L4" t="n">
-        <v>177.7162044631682</v>
+        <v>177.7162044631686</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8708836877044</v>
+        <v>197.8708836877049</v>
       </c>
       <c r="N4" t="n">
-        <v>198.6554678740072</v>
+        <v>198.6554678740077</v>
       </c>
       <c r="O4" t="n">
-        <v>167.3124016235874</v>
+        <v>167.3124016235878</v>
       </c>
       <c r="P4" t="n">
-        <v>119.4063988218669</v>
+        <v>119.4063988218672</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>179.1119431695595</v>
+        <v>10.01532799748628</v>
       </c>
       <c r="K5" t="n">
-        <v>66.26140899356665</v>
+        <v>390.4068215647322</v>
       </c>
       <c r="L5" t="n">
-        <v>119.4776440183134</v>
+        <v>537.1388585687648</v>
       </c>
       <c r="M5" t="n">
-        <v>614.4447640922436</v>
+        <v>614.4447640922448</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3064573799257</v>
+        <v>609.6073272566595</v>
       </c>
       <c r="O5" t="n">
-        <v>529.9908340830308</v>
+        <v>343.0936510881377</v>
       </c>
       <c r="P5" t="n">
-        <v>414.2799828887277</v>
+        <v>92.48127471724598</v>
       </c>
       <c r="Q5" t="n">
-        <v>233.1052364987314</v>
+        <v>20.79024583882742</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>113.0481698646615</v>
       </c>
       <c r="K6" t="n">
-        <v>321.1171698763918</v>
+        <v>56.65193286381376</v>
       </c>
       <c r="L6" t="n">
-        <v>122.9659606294127</v>
+        <v>122.9659606294135</v>
       </c>
       <c r="M6" t="n">
-        <v>628.7529319680584</v>
+        <v>628.7529319680592</v>
       </c>
       <c r="N6" t="n">
-        <v>661.1730837787903</v>
+        <v>520.3920960289406</v>
       </c>
       <c r="O6" t="n">
-        <v>455.7162380043296</v>
+        <v>537.8370051662438</v>
       </c>
       <c r="P6" t="n">
-        <v>414.4867973581094</v>
+        <v>414.48679735811</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.76608950900697</v>
+        <v>223.8433772448565</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.04814118209369</v>
+        <v>95.04814118209403</v>
       </c>
       <c r="L7" t="n">
-        <v>177.7162044631682</v>
+        <v>177.7162044631686</v>
       </c>
       <c r="M7" t="n">
-        <v>197.8708836877044</v>
+        <v>197.8708836877049</v>
       </c>
       <c r="N7" t="n">
-        <v>198.6554678740072</v>
+        <v>198.6554678740077</v>
       </c>
       <c r="O7" t="n">
-        <v>167.3124016235874</v>
+        <v>167.3124016235878</v>
       </c>
       <c r="P7" t="n">
-        <v>119.4063988218669</v>
+        <v>119.4063988218672</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>431.415923336891</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35185,10 +35185,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>535.8019204892956</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35252,22 +35252,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>143.9499119392354</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>661.1730837787903</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>275.1160506279778</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>138.9023428740565</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.86448192629892</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>496.3460208959114</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
